--- a/datashop_interface.xlsx
+++ b/datashop_interface.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="datashop_interface" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="237">
   <si>
     <t>00jhagfped</t>
   </si>
@@ -1131,9 +1131,6 @@
     <t>申请我的项目的信息</t>
   </si>
   <si>
-    <t>/dataapi/dpower/applyMine</t>
-  </si>
-  <si>
     <t>{
 	ok:true,
    status:200,
@@ -1162,9 +1159,6 @@
     <t>删除申请项目的流程</t>
   </si>
   <si>
-    <t>/dataapi/dpower/delete/:powerId</t>
-  </si>
-  <si>
     <t>{
 	ok:true,
    status:200,
@@ -1293,9 +1287,6 @@
   </si>
   <si>
     <t>上传头像</t>
-  </si>
-  <si>
-    <t>/dataapi/duser/uploadHeader</t>
   </si>
   <si>
     <t>multipart/form-data</t>
@@ -1407,9 +1398,6 @@
   </si>
   <si>
     <t>获取所有接口的列表</t>
-  </si>
-  <si>
-    <t>/dataapi/dinterface/queryAll</t>
   </si>
   <si>
     <t>{
@@ -1487,9 +1475,6 @@
     <t>获取所有的项目</t>
   </si>
   <si>
-    <t>/dataapi/dproject/queryAll</t>
-  </si>
-  <si>
     <t>{
 	id:'',
    name:'',
@@ -1617,12 +1602,36 @@
        updateTime:'',
    }</t>
   </si>
+  <si>
+    <t>/dataapi/dpower/applyMine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dataapi/dpower/delete/:powerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dataapi/duser/uploadHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我有权限的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dataapi/dproject/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dataapi/dinterface/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,13 +1647,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1661,7 +1684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1672,6 +1695,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,7 +1718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1763,7 +1792,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1798,7 +1826,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1974,12 +2001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -1994,7 +2023,7 @@
     <col min="13" max="14" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1">
       <c r="A1">
         <v>2</v>
       </c>
@@ -2038,7 +2067,7 @@
         <v>43237.816365740742</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2079,7 +2108,7 @@
         <v>43238.667268518519</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2123,7 +2152,7 @@
         <v>43238.668576388889</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2164,7 +2193,7 @@
         <v>43238.66920138889</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2205,7 +2234,7 @@
         <v>43238.65221064815</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2249,7 +2278,7 @@
         <v>43256.474363425928</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2293,7 +2322,7 @@
         <v>43255.444988425923</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8">
         <v>9</v>
       </c>
@@ -2334,7 +2363,7 @@
         <v>43258.455879629626</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="16.5" customHeight="1">
       <c r="A9">
         <v>10</v>
       </c>
@@ -2378,7 +2407,7 @@
         <v>43255.445428240739</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="16.5" customHeight="1">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2422,7 +2451,7 @@
         <v>43255.445763888885</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="16.5" customHeight="1">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2466,7 +2495,7 @@
         <v>43259.740497685183</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2510,7 +2539,7 @@
         <v>43256.941921296297</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2554,7 +2583,7 @@
         <v>43256.948472222219</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2598,7 +2627,7 @@
         <v>43256.942430555559</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="16.5" customHeight="1">
       <c r="A15">
         <v>16</v>
       </c>
@@ -2642,7 +2671,7 @@
         <v>43258.761319444442</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2686,7 +2715,7 @@
         <v>43256.65898148148</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="16.5" customHeight="1">
       <c r="A17">
         <v>18</v>
       </c>
@@ -2730,7 +2759,7 @@
         <v>43256.640324074076</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2774,7 +2803,7 @@
         <v>43256.641238425924</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="16.5" customHeight="1">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2818,7 +2847,7 @@
         <v>43256.630243055559</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="16.5" customHeight="1">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2862,7 +2891,7 @@
         <v>43257.83384259259</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="16.5" customHeight="1">
       <c r="A21">
         <v>22</v>
       </c>
@@ -2906,7 +2935,7 @@
         <v>43258.469189814816</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="16.5" customHeight="1">
       <c r="A22">
         <v>23</v>
       </c>
@@ -2950,7 +2979,7 @@
         <v>43260.467141203706</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="16.5" customHeight="1">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2994,7 +3023,7 @@
         <v>43260.424039351848</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="16.5" customHeight="1">
       <c r="A24">
         <v>25</v>
       </c>
@@ -3035,7 +3064,7 @@
         <v>43260.425520833334</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="16.5" customHeight="1">
       <c r="A25">
         <v>26</v>
       </c>
@@ -3076,7 +3105,7 @@
         <v>43260.429050925923</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="16.5" customHeight="1">
       <c r="A26">
         <v>27</v>
       </c>
@@ -3117,7 +3146,7 @@
         <v>43260.435706018521</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="16.5" customHeight="1">
       <c r="A27">
         <v>28</v>
       </c>
@@ -3128,7 +3157,7 @@
         <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -3143,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>126</v>
@@ -3158,18 +3187,18 @@
         <v>43260.439293981479</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="16.5" customHeight="1">
       <c r="A28">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
         <v>149</v>
       </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -3184,13 +3213,13 @@
         <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M28" s="3">
         <v>43260.43209490741</v>
@@ -3199,18 +3228,18 @@
         <v>43260.440752314818</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="16.5" customHeight="1">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
         <v>153</v>
-      </c>
-      <c r="C29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" t="s">
-        <v>155</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -3225,13 +3254,13 @@
         <v>14</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M29" s="3">
         <v>43260.433287037034</v>
@@ -3240,18 +3269,18 @@
         <v>43260.441944444443</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="16.5" customHeight="1">
       <c r="A30">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
         <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -3266,13 +3295,13 @@
         <v>14</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M30" s="3">
         <v>43260.435081018521</v>
@@ -3281,18 +3310,18 @@
         <v>43260.443738425929</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="16.5" customHeight="1">
       <c r="A31">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
         <v>162</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" t="s">
-        <v>164</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -3307,16 +3336,16 @@
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M31" s="3">
         <v>43260.437256944446</v>
@@ -3325,18 +3354,18 @@
         <v>43260.445914351854</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="16.5" customHeight="1">
       <c r="A32">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
         <v>168</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -3351,13 +3380,13 @@
         <v>14</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M32" s="3">
         <v>43260.439953703702</v>
@@ -3366,18 +3395,18 @@
         <v>43260.448611111111</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="16.5" customHeight="1">
       <c r="A33">
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
         <v>172</v>
-      </c>
-      <c r="C33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" t="s">
-        <v>174</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -3398,7 +3427,7 @@
         <v>126</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M33" s="3">
         <v>43260.459502314814</v>
@@ -3407,18 +3436,18 @@
         <v>43260.468171296299</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="16.5" customHeight="1">
       <c r="A34">
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
         <v>176</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" t="s">
-        <v>178</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
@@ -3433,7 +3462,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>125</v>
@@ -3442,7 +3471,7 @@
         <v>126</v>
       </c>
       <c r="L34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M34" s="3">
         <v>43260.461712962962</v>
@@ -3451,24 +3480,24 @@
         <v>43260.470370370371</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="16.5" customHeight="1">
       <c r="A35">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -3483,7 +3512,7 @@
         <v>126</v>
       </c>
       <c r="L35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M35" s="3">
         <v>43260.467152777775</v>
@@ -3492,18 +3521,18 @@
         <v>43260.475810185184</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="16.5" customHeight="1">
       <c r="A36">
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -3518,16 +3547,16 @@
         <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M36" s="3">
         <v>43260.47519675926</v>
@@ -3536,18 +3565,18 @@
         <v>43260.483993055554</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="16.5" customHeight="1">
       <c r="A37">
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3562,13 +3591,13 @@
         <v>14</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M37" s="3">
         <v>43260.48505787037</v>
@@ -3577,18 +3606,18 @@
         <v>43260.493715277778</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="16.5" customHeight="1">
       <c r="A38">
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -3603,13 +3632,13 @@
         <v>14</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M38" s="3">
         <v>43260.488333333335</v>
@@ -3618,18 +3647,18 @@
         <v>43260.496990740743</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="16.5" customHeight="1">
       <c r="A39">
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
@@ -3644,16 +3673,16 @@
         <v>14</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M39" s="3">
         <v>43260.496863425928</v>
@@ -3662,24 +3691,24 @@
         <v>43260.505520833336</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="16.5" customHeight="1">
       <c r="A40">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -3687,43 +3716,40 @@
       <c r="H40" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M40" s="3">
-        <v>43260.500405092593</v>
+        <v>43260.50818287037</v>
       </c>
       <c r="N40" s="3">
-        <v>43260.524976851855</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43260.516840277778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16.5" customHeight="1">
       <c r="A41">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
         <v>206</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>207</v>
-      </c>
-      <c r="D41" t="s">
-        <v>208</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
@@ -3732,39 +3758,39 @@
         <v>14</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M41" s="3">
-        <v>43260.50818287037</v>
+        <v>43260.508738425924</v>
       </c>
       <c r="N41" s="3">
-        <v>43260.516840277778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43260.517395833333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16.5" customHeight="1">
       <c r="A42">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
         <v>209</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>210</v>
-      </c>
-      <c r="D42" t="s">
-        <v>211</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -3772,25 +3798,28 @@
       <c r="H42" t="s">
         <v>14</v>
       </c>
+      <c r="I42" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="J42" s="2" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M42" s="3">
-        <v>43260.508738425924</v>
+        <v>43260.510208333333</v>
       </c>
       <c r="N42" s="3">
-        <v>43260.517395833333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43260.518865740742</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16.5" customHeight="1">
       <c r="A43">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>212</v>
@@ -3799,7 +3828,7 @@
         <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
@@ -3814,10 +3843,10 @@
         <v>14</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>126</v>
@@ -3826,27 +3855,27 @@
         <v>213</v>
       </c>
       <c r="M43" s="3">
-        <v>43260.510208333333</v>
+        <v>43260.517523148148</v>
       </c>
       <c r="N43" s="3">
-        <v>43260.518865740742</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43260.526180555556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="16.5" customHeight="1">
       <c r="A44">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" t="s">
-        <v>217</v>
+        <v>198</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
@@ -3858,36 +3887,36 @@
         <v>14</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L44" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M44" s="3">
-        <v>43260.517523148148</v>
+        <v>43260.500405092593</v>
       </c>
       <c r="N44" s="3">
-        <v>43260.526180555556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43260.524976851855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16.5" customHeight="1">
       <c r="A45">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -3902,13 +3931,13 @@
         <v>14</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L45" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M45" s="3">
         <v>43260.520069444443</v>
@@ -3917,18 +3946,18 @@
         <v>43260.528738425928</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="16.5" customHeight="1">
       <c r="A46">
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" t="s">
-        <v>227</v>
+        <v>221</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -3943,16 +3972,16 @@
         <v>14</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L46" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M46" s="3">
         <v>43260.521932870368</v>
@@ -3961,18 +3990,18 @@
         <v>43260.530601851853</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="16.5" customHeight="1">
       <c r="A47">
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -3987,13 +4016,13 @@
         <v>14</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>126</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M47" s="3">
         <v>43260.523020833331</v>
@@ -4005,16 +4034,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4022,12 +4052,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4035,12 +4065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
